--- a/Assembly Survey Report/Report_Log.xlsx
+++ b/Assembly Survey Report/Report_Log.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\OneDrive\Desktop\Assembly Survey Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F638A1-9A20-4FA9-9C12-413CB556661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>X RMS (m)</t>
+  </si>
+  <si>
+    <t>Y RMS (m)</t>
+  </si>
+  <si>
+    <t>Z RMS (m)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,18 +125,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -177,6 +207,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1254,1066 +1292,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="48.81640625" customWidth="1" min="1" max="1"/>
-    <col width="23.453125" customWidth="1" min="2" max="2"/>
-    <col width="22.453125" customWidth="1" min="3" max="3"/>
-    <col width="13.90625" customWidth="1" min="4" max="4"/>
-    <col width="13.81640625" customWidth="1" min="5" max="5"/>
-    <col width="13.7265625" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="48.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
+    <row r="1" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>X RMS (m)</t>
-        </is>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Y RMS (m)</t>
-        </is>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Z RMS (m)</t>
-        </is>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>DLM#-1###/Report DLM#-1### Assembly Survey.xlsx</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.678048125</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>November 06, 2021</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>2.390868043201046e-05</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>7.044501401802685e-06</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.0001223974060182649</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>DLM#-1###/Report DLM#-1### Assembly Survey.xlsx</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.6798016319444444</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>November 06, 2021</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>2.390868043201046e-05</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>7.044501401802685e-06</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0.0001223974060182649</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DLM#-1###/Report DLM#-1### Assembly Survey.xlsx</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.6824520059375</v>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>November 06, 2021</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>2.390868043201046e-05</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>7.044501401802685e-06</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0.0001223974060182649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
-      <c r="F11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
-      <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
-      <c r="D46" s="1" t="n"/>
-      <c r="E46" s="1" t="n"/>
-      <c r="F46" s="1" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="n"/>
-      <c r="E47" s="1" t="n"/>
-      <c r="F47" s="1" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
-      <c r="D48" s="1" t="n"/>
-      <c r="E48" s="1" t="n"/>
-      <c r="F48" s="1" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="n"/>
-      <c r="F49" s="1" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
-      <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="n"/>
-      <c r="F50" s="1" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="n"/>
-      <c r="F51" s="1" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="n"/>
-      <c r="E52" s="1" t="n"/>
-      <c r="F52" s="1" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n"/>
-      <c r="F53" s="1" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
-      <c r="D54" s="1" t="n"/>
-      <c r="E54" s="1" t="n"/>
-      <c r="F54" s="1" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="n"/>
-      <c r="E55" s="1" t="n"/>
-      <c r="F55" s="1" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n"/>
-      <c r="E56" s="1" t="n"/>
-      <c r="F56" s="1" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="n"/>
-      <c r="E57" s="1" t="n"/>
-      <c r="F57" s="1" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="n"/>
-      <c r="E58" s="1" t="n"/>
-      <c r="F58" s="1" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
-      <c r="D59" s="1" t="n"/>
-      <c r="E59" s="1" t="n"/>
-      <c r="F59" s="1" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="n"/>
-      <c r="E60" s="1" t="n"/>
-      <c r="F60" s="1" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="n"/>
-      <c r="E61" s="1" t="n"/>
-      <c r="F61" s="1" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
-      <c r="D62" s="1" t="n"/>
-      <c r="E62" s="1" t="n"/>
-      <c r="F62" s="1" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
-      <c r="D63" s="1" t="n"/>
-      <c r="E63" s="1" t="n"/>
-      <c r="F63" s="1" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
-      <c r="D64" s="1" t="n"/>
-      <c r="E64" s="1" t="n"/>
-      <c r="F64" s="1" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="n"/>
-      <c r="E65" s="1" t="n"/>
-      <c r="F65" s="1" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
-      <c r="D66" s="1" t="n"/>
-      <c r="E66" s="1" t="n"/>
-      <c r="F66" s="1" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="n"/>
-      <c r="E67" s="1" t="n"/>
-      <c r="F67" s="1" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n"/>
-      <c r="E68" s="1" t="n"/>
-      <c r="F68" s="1" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n"/>
-      <c r="E69" s="1" t="n"/>
-      <c r="F69" s="1" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="n"/>
-      <c r="E70" s="1" t="n"/>
-      <c r="F70" s="1" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
-      <c r="D71" s="1" t="n"/>
-      <c r="E71" s="1" t="n"/>
-      <c r="F71" s="1" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
-      <c r="D72" s="1" t="n"/>
-      <c r="E72" s="1" t="n"/>
-      <c r="F72" s="1" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
-      <c r="D73" s="1" t="n"/>
-      <c r="E73" s="1" t="n"/>
-      <c r="F73" s="1" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
-      <c r="D74" s="1" t="n"/>
-      <c r="E74" s="1" t="n"/>
-      <c r="F74" s="1" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
-      <c r="D75" s="1" t="n"/>
-      <c r="E75" s="1" t="n"/>
-      <c r="F75" s="1" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
-      <c r="D76" s="1" t="n"/>
-      <c r="E76" s="1" t="n"/>
-      <c r="F76" s="1" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="n"/>
-      <c r="E77" s="1" t="n"/>
-      <c r="F77" s="1" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
-      <c r="D78" s="1" t="n"/>
-      <c r="E78" s="1" t="n"/>
-      <c r="F78" s="1" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="n"/>
-      <c r="D79" s="1" t="n"/>
-      <c r="E79" s="1" t="n"/>
-      <c r="F79" s="1" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="n"/>
-      <c r="E80" s="1" t="n"/>
-      <c r="F80" s="1" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
-      <c r="D81" s="1" t="n"/>
-      <c r="E81" s="1" t="n"/>
-      <c r="F81" s="1" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
-      <c r="D82" s="1" t="n"/>
-      <c r="E82" s="1" t="n"/>
-      <c r="F82" s="1" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="n"/>
-      <c r="E83" s="1" t="n"/>
-      <c r="F83" s="1" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="n"/>
-      <c r="E84" s="1" t="n"/>
-      <c r="F84" s="1" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="n"/>
-      <c r="D85" s="1" t="n"/>
-      <c r="E85" s="1" t="n"/>
-      <c r="F85" s="1" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
-      <c r="D86" s="1" t="n"/>
-      <c r="E86" s="1" t="n"/>
-      <c r="F86" s="1" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="n"/>
-      <c r="E87" s="1" t="n"/>
-      <c r="F87" s="1" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
-      <c r="D88" s="1" t="n"/>
-      <c r="E88" s="1" t="n"/>
-      <c r="F88" s="1" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="n"/>
-      <c r="E89" s="1" t="n"/>
-      <c r="F89" s="1" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
-      <c r="D90" s="1" t="n"/>
-      <c r="E90" s="1" t="n"/>
-      <c r="F90" s="1" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="n"/>
-      <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="n"/>
-      <c r="E91" s="1" t="n"/>
-      <c r="F91" s="1" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
-      <c r="C92" s="1" t="n"/>
-      <c r="D92" s="1" t="n"/>
-      <c r="E92" s="1" t="n"/>
-      <c r="F92" s="1" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="n"/>
-      <c r="D93" s="1" t="n"/>
-      <c r="E93" s="1" t="n"/>
-      <c r="F93" s="1" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="n"/>
-      <c r="D94" s="1" t="n"/>
-      <c r="E94" s="1" t="n"/>
-      <c r="F94" s="1" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="n"/>
-      <c r="D95" s="1" t="n"/>
-      <c r="E95" s="1" t="n"/>
-      <c r="F95" s="1" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="n"/>
-      <c r="D96" s="1" t="n"/>
-      <c r="E96" s="1" t="n"/>
-      <c r="F96" s="1" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
-      <c r="D97" s="1" t="n"/>
-      <c r="E97" s="1" t="n"/>
-      <c r="F97" s="1" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="n"/>
-      <c r="D98" s="1" t="n"/>
-      <c r="E98" s="1" t="n"/>
-      <c r="F98" s="1" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
-      <c r="D99" s="1" t="n"/>
-      <c r="E99" s="1" t="n"/>
-      <c r="F99" s="1" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
-      <c r="D100" s="1" t="n"/>
-      <c r="E100" s="1" t="n"/>
-      <c r="F100" s="1" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n"/>
-      <c r="C101" s="1" t="n"/>
-      <c r="D101" s="1" t="n"/>
-      <c r="E101" s="1" t="n"/>
-      <c r="F101" s="1" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="n"/>
-      <c r="D102" s="1" t="n"/>
-      <c r="E102" s="1" t="n"/>
-      <c r="F102" s="1" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="n"/>
-      <c r="D103" s="1" t="n"/>
-      <c r="E103" s="1" t="n"/>
-      <c r="F103" s="1" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="n"/>
-      <c r="C104" s="1" t="n"/>
-      <c r="D104" s="1" t="n"/>
-      <c r="E104" s="1" t="n"/>
-      <c r="F104" s="1" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="n"/>
-      <c r="C105" s="1" t="n"/>
-      <c r="D105" s="1" t="n"/>
-      <c r="E105" s="1" t="n"/>
-      <c r="F105" s="1" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="n"/>
-      <c r="C106" s="1" t="n"/>
-      <c r="D106" s="1" t="n"/>
-      <c r="E106" s="1" t="n"/>
-      <c r="F106" s="1" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="n"/>
-      <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="n"/>
-      <c r="E107" s="1" t="n"/>
-      <c r="F107" s="1" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="n"/>
-      <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="n"/>
-      <c r="E108" s="1" t="n"/>
-      <c r="F108" s="1" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n"/>
-      <c r="B109" s="1" t="n"/>
-      <c r="C109" s="1" t="n"/>
-      <c r="D109" s="1" t="n"/>
-      <c r="E109" s="1" t="n"/>
-      <c r="F109" s="1" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="n"/>
-      <c r="C110" s="1" t="n"/>
-      <c r="D110" s="1" t="n"/>
-      <c r="E110" s="1" t="n"/>
-      <c r="F110" s="1" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="n"/>
-      <c r="D111" s="1" t="n"/>
-      <c r="E111" s="1" t="n"/>
-      <c r="F111" s="1" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="n"/>
-      <c r="C112" s="1" t="n"/>
-      <c r="D112" s="1" t="n"/>
-      <c r="E112" s="1" t="n"/>
-      <c r="F112" s="1" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="n"/>
-      <c r="C113" s="1" t="n"/>
-      <c r="D113" s="1" t="n"/>
-      <c r="E113" s="1" t="n"/>
-      <c r="F113" s="1" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="n"/>
-      <c r="C114" s="1" t="n"/>
-      <c r="D114" s="1" t="n"/>
-      <c r="E114" s="1" t="n"/>
-      <c r="F114" s="1" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="n"/>
-      <c r="C115" s="1" t="n"/>
-      <c r="D115" s="1" t="n"/>
-      <c r="E115" s="1" t="n"/>
-      <c r="F115" s="1" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="n"/>
-      <c r="C116" s="1" t="n"/>
-      <c r="D116" s="1" t="n"/>
-      <c r="E116" s="1" t="n"/>
-      <c r="F116" s="1" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="n"/>
-      <c r="C117" s="1" t="n"/>
-      <c r="D117" s="1" t="n"/>
-      <c r="E117" s="1" t="n"/>
-      <c r="F117" s="1" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="n"/>
-      <c r="C118" s="1" t="n"/>
-      <c r="D118" s="1" t="n"/>
-      <c r="E118" s="1" t="n"/>
-      <c r="F118" s="1" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="n"/>
-      <c r="D119" s="1" t="n"/>
-      <c r="E119" s="1" t="n"/>
-      <c r="F119" s="1" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="n"/>
-      <c r="C120" s="1" t="n"/>
-      <c r="D120" s="1" t="n"/>
-      <c r="E120" s="1" t="n"/>
-      <c r="F120" s="1" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="n"/>
-      <c r="D121" s="1" t="n"/>
-      <c r="E121" s="1" t="n"/>
-      <c r="F121" s="1" t="n"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
